--- a/ゲーム進捗及び担当/仕様書_Gunfusion.xlsx
+++ b/ゲーム進捗及び担当/仕様書_Gunfusion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2568D-D570-4128-AD42-BA7746620440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4627DF-6BAA-4DF3-81AD-91A2C359E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="540" windowWidth="23280" windowHeight="13860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="項目" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="149">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
@@ -178,10 +178,6 @@
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リストサンプル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1268,6 +1264,42 @@
     <t>アタッチメント。オーバーヒートゲージを拡張する。</t>
     <rPh sb="19" eb="21">
       <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵キャラ、アイテムリスト</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボスキャラのドロップアイテム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーのステータスを上昇させる。HPの最大値を上げるかインベントリの枠を増加させるかの二つから選択する。</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2250,11 +2282,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2278,18 +2368,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2328,15 +2406,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2345,42 +2414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2403,37 +2436,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2450,6 +2462,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2476,15 +2521,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2523,10 +2559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2952,8 +2984,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128835</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2994,16 +3026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3018,7 +3050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="4095750"/>
+          <a:off x="1228725" y="4829175"/>
           <a:ext cx="476250" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4130,472 +4162,472 @@
   <sheetData>
     <row r="2" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="57">
         <v>46044</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="57">
         <v>45959</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="57">
         <v>45959</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="62">
         <v>45959</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="57">
         <v>45960</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="57">
         <v>45960</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="65">
         <v>45960</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="65">
         <v>45974</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="65">
         <v>45974</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="65">
         <v>45974</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="65">
         <v>45981</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="65">
         <v>45981</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="65">
         <v>45981</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="65">
         <v>45986</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="65">
         <v>46000</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="65">
         <v>45988</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="65">
         <v>45988</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="65">
         <v>46008</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="65">
         <v>46008</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="65">
         <v>46001</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="65">
         <v>46008</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="65">
         <v>46008</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="65">
         <v>46009</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" s="65">
         <v>46009</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="65">
         <v>46028</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="65">
         <v>46036</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B31" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="65">
         <v>46036</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="65">
         <v>46036</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="65">
         <v>46044</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="65">
         <v>46044</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="65">
         <v>46044</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
@@ -4641,15 +4673,15 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -4657,7 +4689,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -4665,7 +4697,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -4679,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -4697,7 +4729,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="159">
+      <c r="B12" s="67">
         <v>46044</v>
       </c>
     </row>
@@ -4736,40 +4768,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="AT2" s="67" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="AT2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="AI4" s="59"/>
@@ -4784,38 +4816,38 @@
       <c r="AR4" s="59"/>
     </row>
     <row r="5" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="84"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
       <c r="AI5" s="59"/>
       <c r="AJ5" s="59"/>
       <c r="AK5" s="59"/>
@@ -4828,38 +4860,38 @@
       <c r="AR5" s="59"/>
     </row>
     <row r="6" spans="2:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="87"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
       <c r="AI6" s="59"/>
       <c r="AJ6" s="59"/>
       <c r="AK6" s="59"/>
@@ -4872,38 +4904,38 @@
       <c r="AR6" s="59"/>
     </row>
     <row r="7" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="103"/>
       <c r="AI7" s="59"/>
       <c r="AJ7" s="59"/>
       <c r="AK7" s="44"/>
@@ -4916,38 +4948,38 @@
       <c r="AR7" s="59"/>
     </row>
     <row r="8" spans="2:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="87"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="103"/>
       <c r="AI8" s="59"/>
       <c r="AJ8" s="59"/>
       <c r="AK8" s="44"/>
@@ -4960,789 +4992,789 @@
       <c r="AR8" s="59"/>
     </row>
     <row r="9" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="87"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="103"/>
     </row>
     <row r="10" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="87"/>
-      <c r="AK10" s="75" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AK10" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="96" t="s">
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="97"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="97"/>
-      <c r="AY10" s="97"/>
-      <c r="AZ10" s="98"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="111"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="87"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
       <c r="AK11" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="99" t="s">
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="80"/>
+      <c r="AP11" s="80"/>
+      <c r="AQ11" s="80"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="80"/>
+      <c r="AT11" s="80"/>
+      <c r="AU11" s="80"/>
+      <c r="AV11" s="80"/>
+      <c r="AW11" s="80"/>
+      <c r="AX11" s="80"/>
+      <c r="AY11" s="80"/>
+      <c r="AZ11" s="81"/>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AK12" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="100"/>
-      <c r="AS11" s="100"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="100"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="100"/>
-      <c r="AX11" s="100"/>
-      <c r="AY11" s="100"/>
-      <c r="AZ11" s="101"/>
-    </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="87"/>
-      <c r="AK12" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="93" t="s">
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="72"/>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AK13" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="95"/>
-    </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="87"/>
-      <c r="AK13" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="93" t="s">
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="72"/>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AK14" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="95"/>
-    </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="87"/>
-      <c r="AK14" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="93" t="s">
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="72"/>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AK15" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL15" s="108"/>
+      <c r="AM15" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="72"/>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AK16" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="94"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="95"/>
-    </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AK15" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="93" t="s">
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="80"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="80"/>
+      <c r="AR16" s="80"/>
+      <c r="AS16" s="80"/>
+      <c r="AT16" s="80"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
+      <c r="AY16" s="80"/>
+      <c r="AZ16" s="81"/>
+    </row>
+    <row r="17" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
+      <c r="AK17" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="94"/>
-      <c r="AQ15" s="94"/>
-      <c r="AR15" s="94"/>
-      <c r="AS15" s="94"/>
-      <c r="AT15" s="94"/>
-      <c r="AU15" s="94"/>
-      <c r="AV15" s="94"/>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="94"/>
-      <c r="AY15" s="94"/>
-      <c r="AZ15" s="95"/>
-    </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="87"/>
-      <c r="AK16" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="99" t="s">
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="72"/>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.4">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
+      <c r="AK18" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="AN16" s="100"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="100"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="100"/>
-      <c r="AU16" s="100"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="100"/>
-      <c r="AX16" s="100"/>
-      <c r="AY16" s="100"/>
-      <c r="AZ16" s="101"/>
-    </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="87"/>
-      <c r="AK17" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="94"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="94"/>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="95"/>
-    </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="87"/>
-      <c r="AK18" s="79" t="s">
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="94"/>
-      <c r="AY18" s="94"/>
-      <c r="AZ18" s="95"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="71"/>
+      <c r="AZ18" s="72"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="87"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="94"/>
-      <c r="AS19" s="94"/>
-      <c r="AT19" s="94"/>
-      <c r="AU19" s="94"/>
-      <c r="AV19" s="94"/>
-      <c r="AW19" s="94"/>
-      <c r="AX19" s="94"/>
-      <c r="AY19" s="94"/>
-      <c r="AZ19" s="95"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="103"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="72"/>
     </row>
     <row r="20" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="87"/>
-      <c r="AK20" s="106"/>
-      <c r="AL20" s="107"/>
-      <c r="AM20" s="108"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
-      <c r="AV20" s="109"/>
-      <c r="AW20" s="109"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
-      <c r="AZ20" s="110"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="88"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="87"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="103"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="87"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="103"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="87"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
     </row>
     <row r="24" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
     </row>
     <row r="25" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B27" s="105">
+      <c r="B27" s="76">
         <v>46028</v>
       </c>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.4">
       <c r="B31" s="58"/>
@@ -5846,19 +5878,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
     <mergeCell ref="AT2:AZ3"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B29:E29"/>
@@ -5875,6 +5894,19 @@
     <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="AM12:AZ12"/>
     <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5897,116 +5929,116 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="S2" s="67" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="S2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
     </row>
     <row r="3" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
     </row>
     <row r="5" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="Q5" s="111" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="Q5" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="18"/>
+      <c r="AH5" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="18"/>
-      <c r="AH5" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
     </row>
     <row r="6" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
       <c r="Y6" s="18"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="112"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="112"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
     </row>
     <row r="9" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="Q9" s="18"/>
@@ -6106,12 +6138,12 @@
       <c r="Y19" s="22"/>
     </row>
     <row r="20" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
@@ -6123,12 +6155,12 @@
       <c r="Y20" s="22"/>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C21" s="105">
+      <c r="C21" s="76">
         <v>46044</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
@@ -6140,10 +6172,10 @@
       <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.4">
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
@@ -6155,10 +6187,10 @@
       <c r="Y22" s="22"/>
     </row>
     <row r="23" spans="3:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
@@ -6197,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:BK29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11:BK11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6207,809 +6239,809 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="BE2" s="67" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="BE2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
     </row>
     <row r="4" spans="2:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="84"/>
-      <c r="AJ5" s="127" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
+      <c r="AJ5" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="AK5" s="128"/>
-      <c r="AL5" s="129" t="s">
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="129" t="s">
+      <c r="AM5" s="124"/>
+      <c r="AN5" s="124"/>
+      <c r="AO5" s="124"/>
+      <c r="AP5" s="124"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="130"/>
-      <c r="AX5" s="130"/>
-      <c r="AY5" s="130"/>
-      <c r="AZ5" s="130"/>
-      <c r="BA5" s="130"/>
-      <c r="BB5" s="130"/>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="130"/>
-      <c r="BH5" s="130"/>
-      <c r="BI5" s="130"/>
-      <c r="BJ5" s="130"/>
-      <c r="BK5" s="131"/>
+      <c r="AS5" s="124"/>
+      <c r="AT5" s="124"/>
+      <c r="AU5" s="124"/>
+      <c r="AV5" s="124"/>
+      <c r="AW5" s="124"/>
+      <c r="AX5" s="124"/>
+      <c r="AY5" s="124"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="124"/>
+      <c r="BB5" s="124"/>
+      <c r="BC5" s="124"/>
+      <c r="BD5" s="124"/>
+      <c r="BE5" s="124"/>
+      <c r="BF5" s="124"/>
+      <c r="BG5" s="124"/>
+      <c r="BH5" s="124"/>
+      <c r="BI5" s="124"/>
+      <c r="BJ5" s="124"/>
+      <c r="BK5" s="125"/>
     </row>
     <row r="6" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="87"/>
-      <c r="AJ6" s="132">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
+      <c r="AJ6" s="126">
         <v>1</v>
       </c>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="99" t="s">
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="127"/>
+      <c r="AR6" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS6" s="80"/>
+      <c r="AT6" s="80"/>
+      <c r="AU6" s="80"/>
+      <c r="AV6" s="80"/>
+      <c r="AW6" s="80"/>
+      <c r="AX6" s="80"/>
+      <c r="AY6" s="80"/>
+      <c r="AZ6" s="80"/>
+      <c r="BA6" s="80"/>
+      <c r="BB6" s="80"/>
+      <c r="BC6" s="80"/>
+      <c r="BD6" s="80"/>
+      <c r="BE6" s="80"/>
+      <c r="BF6" s="80"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="80"/>
+      <c r="BJ6" s="80"/>
+      <c r="BK6" s="81"/>
+    </row>
+    <row r="7" spans="2:63" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="103"/>
+      <c r="AJ7" s="121">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="99" t="s">
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="100"/>
-      <c r="BJ6" s="100"/>
-      <c r="BK6" s="101"/>
-    </row>
-    <row r="7" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="87"/>
-      <c r="AJ7" s="124">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="93" t="s">
+      <c r="AS7" s="128"/>
+      <c r="AT7" s="128"/>
+      <c r="AU7" s="128"/>
+      <c r="AV7" s="128"/>
+      <c r="AW7" s="128"/>
+      <c r="AX7" s="128"/>
+      <c r="AY7" s="128"/>
+      <c r="AZ7" s="128"/>
+      <c r="BA7" s="128"/>
+      <c r="BB7" s="128"/>
+      <c r="BC7" s="128"/>
+      <c r="BD7" s="128"/>
+      <c r="BE7" s="128"/>
+      <c r="BF7" s="128"/>
+      <c r="BG7" s="128"/>
+      <c r="BH7" s="128"/>
+      <c r="BI7" s="128"/>
+      <c r="BJ7" s="128"/>
+      <c r="BK7" s="129"/>
+    </row>
+    <row r="8" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="103"/>
+      <c r="AJ8" s="121">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="122"/>
+      <c r="AR8" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="71"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="72"/>
+    </row>
+    <row r="9" spans="2:63" x14ac:dyDescent="0.4">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="103"/>
+      <c r="AJ9" s="121">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS7" s="125"/>
-      <c r="AT7" s="125"/>
-      <c r="AU7" s="125"/>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125"/>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="125"/>
-      <c r="BD7" s="125"/>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125"/>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="126"/>
-    </row>
-    <row r="8" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="87"/>
-      <c r="AJ8" s="124">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="123"/>
-      <c r="AR8" s="93" t="s">
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="122"/>
+      <c r="AR9" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="94"/>
-      <c r="BG8" s="94"/>
-      <c r="BH8" s="94"/>
-      <c r="BI8" s="94"/>
-      <c r="BJ8" s="94"/>
-      <c r="BK8" s="95"/>
-    </row>
-    <row r="9" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="87"/>
-      <c r="AJ9" s="124">
-        <v>4</v>
-      </c>
-      <c r="AK9" s="123"/>
-      <c r="AL9" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS9" s="94"/>
-      <c r="AT9" s="94"/>
-      <c r="AU9" s="94"/>
-      <c r="AV9" s="94"/>
-      <c r="AW9" s="94"/>
-      <c r="AX9" s="94"/>
-      <c r="AY9" s="94"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="94"/>
-      <c r="BB9" s="94"/>
-      <c r="BC9" s="94"/>
-      <c r="BD9" s="94"/>
-      <c r="BE9" s="94"/>
-      <c r="BF9" s="94"/>
-      <c r="BG9" s="94"/>
-      <c r="BH9" s="94"/>
-      <c r="BI9" s="94"/>
-      <c r="BJ9" s="94"/>
-      <c r="BK9" s="95"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71"/>
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="71"/>
+      <c r="BG9" s="71"/>
+      <c r="BH9" s="71"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="71"/>
+      <c r="BK9" s="72"/>
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="87"/>
-      <c r="AJ10" s="124">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AJ10" s="121">
         <v>5</v>
       </c>
-      <c r="AK10" s="123"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
-      <c r="AP10" s="94"/>
-      <c r="AQ10" s="123"/>
-      <c r="AR10" s="93"/>
-      <c r="AS10" s="94"/>
-      <c r="AT10" s="94"/>
-      <c r="AU10" s="94"/>
-      <c r="AV10" s="94"/>
-      <c r="AW10" s="94"/>
-      <c r="AX10" s="94"/>
-      <c r="AY10" s="94"/>
-      <c r="AZ10" s="94"/>
-      <c r="BA10" s="94"/>
-      <c r="BB10" s="94"/>
-      <c r="BC10" s="94"/>
-      <c r="BD10" s="94"/>
-      <c r="BE10" s="94"/>
-      <c r="BF10" s="94"/>
-      <c r="BG10" s="94"/>
-      <c r="BH10" s="94"/>
-      <c r="BI10" s="94"/>
-      <c r="BJ10" s="94"/>
-      <c r="BK10" s="95"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="122"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="71"/>
+      <c r="BK10" s="72"/>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="87"/>
-      <c r="AJ11" s="124">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AJ11" s="121">
         <v>6</v>
       </c>
-      <c r="AK11" s="123"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="94"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="94"/>
-      <c r="AV11" s="94"/>
-      <c r="AW11" s="94"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="94"/>
-      <c r="AZ11" s="94"/>
-      <c r="BA11" s="94"/>
-      <c r="BB11" s="94"/>
-      <c r="BC11" s="94"/>
-      <c r="BD11" s="94"/>
-      <c r="BE11" s="94"/>
-      <c r="BF11" s="94"/>
-      <c r="BG11" s="94"/>
-      <c r="BH11" s="94"/>
-      <c r="BI11" s="94"/>
-      <c r="BJ11" s="94"/>
-      <c r="BK11" s="95"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="122"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="71"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="71"/>
+      <c r="BG11" s="71"/>
+      <c r="BH11" s="71"/>
+      <c r="BI11" s="71"/>
+      <c r="BJ11" s="71"/>
+      <c r="BK11" s="72"/>
     </row>
     <row r="12" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="87"/>
-      <c r="AJ12" s="124">
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AJ12" s="121">
         <v>7</v>
       </c>
-      <c r="AK12" s="123"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="93"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="94"/>
-      <c r="BH12" s="94"/>
-      <c r="BI12" s="94"/>
-      <c r="BJ12" s="94"/>
-      <c r="BK12" s="95"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="70"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="122"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
+      <c r="AX12" s="71"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="71"/>
+      <c r="BA12" s="71"/>
+      <c r="BB12" s="71"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="71"/>
+      <c r="BF12" s="71"/>
+      <c r="BG12" s="71"/>
+      <c r="BH12" s="71"/>
+      <c r="BI12" s="71"/>
+      <c r="BJ12" s="71"/>
+      <c r="BK12" s="72"/>
     </row>
     <row r="13" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="87"/>
-      <c r="AJ13" s="124">
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AJ13" s="121">
         <v>8</v>
       </c>
-      <c r="AK13" s="123"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="93"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="94"/>
-      <c r="BC13" s="94"/>
-      <c r="BD13" s="94"/>
-      <c r="BE13" s="94"/>
-      <c r="BF13" s="94"/>
-      <c r="BG13" s="94"/>
-      <c r="BH13" s="94"/>
-      <c r="BI13" s="94"/>
-      <c r="BJ13" s="94"/>
-      <c r="BK13" s="95"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="122"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="71"/>
+      <c r="AX13" s="71"/>
+      <c r="AY13" s="71"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="71"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="71"/>
+      <c r="BG13" s="71"/>
+      <c r="BH13" s="71"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="71"/>
+      <c r="BK13" s="72"/>
     </row>
     <row r="14" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="87"/>
-      <c r="AJ14" s="124">
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AJ14" s="121">
         <v>9</v>
       </c>
-      <c r="AK14" s="123"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="123"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="94"/>
-      <c r="AT14" s="94"/>
-      <c r="AU14" s="94"/>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="94"/>
-      <c r="BF14" s="94"/>
-      <c r="BG14" s="94"/>
-      <c r="BH14" s="94"/>
-      <c r="BI14" s="94"/>
-      <c r="BJ14" s="94"/>
-      <c r="BK14" s="95"/>
+      <c r="AK14" s="122"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="122"/>
+      <c r="AR14" s="70"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="71"/>
+      <c r="AZ14" s="71"/>
+      <c r="BA14" s="71"/>
+      <c r="BB14" s="71"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="71"/>
+      <c r="BF14" s="71"/>
+      <c r="BG14" s="71"/>
+      <c r="BH14" s="71"/>
+      <c r="BI14" s="71"/>
+      <c r="BJ14" s="71"/>
+      <c r="BK14" s="72"/>
     </row>
     <row r="15" spans="2:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AJ15" s="118">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AJ15" s="130">
         <v>10</v>
       </c>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="121"/>
-      <c r="AY15" s="121"/>
-      <c r="AZ15" s="121"/>
-      <c r="BA15" s="121"/>
-      <c r="BB15" s="121"/>
-      <c r="BC15" s="121"/>
-      <c r="BD15" s="121"/>
-      <c r="BE15" s="121"/>
-      <c r="BF15" s="121"/>
-      <c r="BG15" s="121"/>
-      <c r="BH15" s="121"/>
-      <c r="BI15" s="121"/>
-      <c r="BJ15" s="121"/>
-      <c r="BK15" s="122"/>
+      <c r="AK15" s="131"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="133"/>
+      <c r="AN15" s="133"/>
+      <c r="AO15" s="133"/>
+      <c r="AP15" s="133"/>
+      <c r="AQ15" s="131"/>
+      <c r="AR15" s="132"/>
+      <c r="AS15" s="133"/>
+      <c r="AT15" s="133"/>
+      <c r="AU15" s="133"/>
+      <c r="AV15" s="133"/>
+      <c r="AW15" s="133"/>
+      <c r="AX15" s="133"/>
+      <c r="AY15" s="133"/>
+      <c r="AZ15" s="133"/>
+      <c r="BA15" s="133"/>
+      <c r="BB15" s="133"/>
+      <c r="BC15" s="133"/>
+      <c r="BD15" s="133"/>
+      <c r="BE15" s="133"/>
+      <c r="BF15" s="133"/>
+      <c r="BG15" s="133"/>
+      <c r="BH15" s="133"/>
+      <c r="BI15" s="133"/>
+      <c r="BJ15" s="133"/>
+      <c r="BK15" s="134"/>
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.4">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="87"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
       <c r="AJ16" s="25"/>
       <c r="AK16" s="25"/>
       <c r="AL16" s="25"/>
@@ -7040,306 +7072,332 @@
       <c r="BK16" s="25"/>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="87"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="87"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="87"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="103"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="87"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="87"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="103"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="87"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="103"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="87"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
     </row>
     <row r="24" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
     </row>
     <row r="25" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+      <c r="B27" s="76">
+        <v>46049</v>
+      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" spans="2:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AQ15"/>
+    <mergeCell ref="AR15:BK15"/>
+    <mergeCell ref="AL13:AQ13"/>
+    <mergeCell ref="AR13:BK13"/>
+    <mergeCell ref="AJ14:AK14"/>
+    <mergeCell ref="AL14:AQ14"/>
+    <mergeCell ref="AR14:BK14"/>
+    <mergeCell ref="AL11:AQ11"/>
+    <mergeCell ref="AR11:BK11"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AQ12"/>
+    <mergeCell ref="AR12:BK12"/>
+    <mergeCell ref="AL9:AQ9"/>
+    <mergeCell ref="AR9:BK9"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AQ10"/>
+    <mergeCell ref="AR10:BK10"/>
+    <mergeCell ref="AR6:BK6"/>
+    <mergeCell ref="AL7:AQ7"/>
+    <mergeCell ref="AR7:BK7"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR8:BK8"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="BE2:BK3"/>
@@ -7356,30 +7414,6 @@
     <mergeCell ref="AR5:BK5"/>
     <mergeCell ref="AJ6:AK6"/>
     <mergeCell ref="AL6:AQ6"/>
-    <mergeCell ref="AR6:BK6"/>
-    <mergeCell ref="AL7:AQ7"/>
-    <mergeCell ref="AR7:BK7"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AL8:AQ8"/>
-    <mergeCell ref="AR8:BK8"/>
-    <mergeCell ref="AL9:AQ9"/>
-    <mergeCell ref="AR9:BK9"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AQ10"/>
-    <mergeCell ref="AR10:BK10"/>
-    <mergeCell ref="AL11:AQ11"/>
-    <mergeCell ref="AR11:BK11"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AQ12"/>
-    <mergeCell ref="AR12:BK12"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AL15:AQ15"/>
-    <mergeCell ref="AR15:BK15"/>
-    <mergeCell ref="AL13:AQ13"/>
-    <mergeCell ref="AR13:BK13"/>
-    <mergeCell ref="AJ14:AK14"/>
-    <mergeCell ref="AL14:AQ14"/>
-    <mergeCell ref="AR14:BK14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -7395,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:AG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7407,38 +7441,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="113"/>
+      <c r="B2" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="114"/>
       <c r="D2" s="34"/>
       <c r="E2" s="34"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -7488,10 +7522,10 @@
     <row r="6" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="35"/>
       <c r="C6" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>128</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="23"/>
@@ -7526,10 +7560,10 @@
     <row r="7" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>130</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="31"/>
@@ -7564,10 +7598,10 @@
     <row r="8" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="35"/>
       <c r="C8" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>132</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="31"/>
@@ -7602,10 +7636,10 @@
     <row r="9" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="35"/>
       <c r="C9" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="31"/>
@@ -7640,10 +7674,10 @@
     <row r="10" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="35"/>
       <c r="C10" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>136</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="23"/>
@@ -7678,10 +7712,10 @@
     <row r="11" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="35"/>
       <c r="C11" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="31"/>
@@ -7716,10 +7750,10 @@
     <row r="12" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="35"/>
       <c r="C12" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="31"/>
@@ -7754,10 +7788,10 @@
     <row r="13" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="35"/>
       <c r="C13" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="31"/>
@@ -7792,10 +7826,10 @@
     <row r="14" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="35"/>
       <c r="C14" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="23"/>
@@ -7830,10 +7864,10 @@
     <row r="15" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="35"/>
       <c r="C15" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="31"/>
@@ -7867,8 +7901,12 @@
     </row>
     <row r="16" spans="2:33" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="E16" s="29"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
@@ -8310,7 +8348,7 @@
       <c r="AG28" s="32"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B29" s="159">
+      <c r="B29" s="67">
         <v>46044</v>
       </c>
       <c r="C29" s="33"/>
@@ -10309,201 +10347,201 @@
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="AT2" s="67" t="s">
+      <c r="B2" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="AT2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
     </row>
     <row r="3" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="84"/>
-      <c r="AI5" s="143" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
+      <c r="AI5" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="144"/>
-      <c r="AK5" s="144"/>
-      <c r="AL5" s="144"/>
-      <c r="AM5" s="144"/>
-      <c r="AN5" s="144"/>
-      <c r="AO5" s="144"/>
-      <c r="AP5" s="144"/>
-      <c r="AQ5" s="144"/>
-      <c r="AR5" s="144"/>
-      <c r="AS5" s="144"/>
-      <c r="AT5" s="144"/>
-      <c r="AU5" s="144"/>
-      <c r="AV5" s="144"/>
-      <c r="AW5" s="144"/>
-      <c r="AX5" s="144"/>
-      <c r="AY5" s="144"/>
-      <c r="AZ5" s="145"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="137"/>
     </row>
     <row r="6" spans="2:52" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="87"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="147"/>
-      <c r="AK6" s="147"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="147"/>
-      <c r="AN6" s="147"/>
-      <c r="AO6" s="147"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="147"/>
-      <c r="AR6" s="147"/>
-      <c r="AS6" s="147"/>
-      <c r="AT6" s="147"/>
-      <c r="AU6" s="147"/>
-      <c r="AV6" s="147"/>
-      <c r="AW6" s="147"/>
-      <c r="AX6" s="147"/>
-      <c r="AY6" s="147"/>
-      <c r="AZ6" s="148"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="103"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="149"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="149"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="150"/>
     </row>
     <row r="7" spans="2:52" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="85"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="103"/>
       <c r="AK7" s="44"/>
       <c r="AL7" s="44"/>
       <c r="AM7" s="44"/>
@@ -10512,997 +10550,997 @@
       <c r="AP7" s="44"/>
     </row>
     <row r="8" spans="2:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="85"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="87"/>
-      <c r="AI8" s="143" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="103"/>
+      <c r="AI8" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="AJ8" s="144"/>
-      <c r="AK8" s="144"/>
-      <c r="AL8" s="144"/>
-      <c r="AM8" s="144"/>
-      <c r="AN8" s="144"/>
-      <c r="AO8" s="144"/>
-      <c r="AP8" s="144"/>
-      <c r="AQ8" s="144"/>
-      <c r="AR8" s="144"/>
-      <c r="AS8" s="144"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="145"/>
+      <c r="AJ8" s="136"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="136"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="136"/>
+      <c r="AO8" s="136"/>
+      <c r="AP8" s="136"/>
+      <c r="AQ8" s="136"/>
+      <c r="AR8" s="136"/>
+      <c r="AS8" s="136"/>
+      <c r="AT8" s="136"/>
+      <c r="AU8" s="136"/>
+      <c r="AV8" s="136"/>
+      <c r="AW8" s="136"/>
+      <c r="AX8" s="136"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="137"/>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="87"/>
-      <c r="AI9" s="149"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="150"/>
-      <c r="AO9" s="150"/>
-      <c r="AP9" s="150"/>
-      <c r="AQ9" s="150"/>
-      <c r="AR9" s="150"/>
-      <c r="AS9" s="150"/>
-      <c r="AT9" s="150"/>
-      <c r="AU9" s="150"/>
-      <c r="AV9" s="150"/>
-      <c r="AW9" s="150"/>
-      <c r="AX9" s="150"/>
-      <c r="AY9" s="150"/>
-      <c r="AZ9" s="151"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="103"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="152"/>
+      <c r="AK9" s="152"/>
+      <c r="AL9" s="152"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
+      <c r="AX9" s="152"/>
+      <c r="AY9" s="152"/>
+      <c r="AZ9" s="153"/>
     </row>
     <row r="10" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="86"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="87"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
-      <c r="AQ10" s="153"/>
-      <c r="AR10" s="153"/>
-      <c r="AS10" s="153"/>
-      <c r="AT10" s="153"/>
-      <c r="AU10" s="153"/>
-      <c r="AV10" s="153"/>
-      <c r="AW10" s="153"/>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="154"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="103"/>
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="155"/>
+      <c r="AK10" s="155"/>
+      <c r="AL10" s="155"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="155"/>
+      <c r="AO10" s="155"/>
+      <c r="AP10" s="155"/>
+      <c r="AQ10" s="155"/>
+      <c r="AR10" s="155"/>
+      <c r="AS10" s="155"/>
+      <c r="AT10" s="155"/>
+      <c r="AU10" s="155"/>
+      <c r="AV10" s="155"/>
+      <c r="AW10" s="155"/>
+      <c r="AX10" s="155"/>
+      <c r="AY10" s="155"/>
+      <c r="AZ10" s="156"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="87"/>
-      <c r="AI11" s="152"/>
-      <c r="AJ11" s="153"/>
-      <c r="AK11" s="153"/>
-      <c r="AL11" s="153"/>
-      <c r="AM11" s="153"/>
-      <c r="AN11" s="153"/>
-      <c r="AO11" s="153"/>
-      <c r="AP11" s="153"/>
-      <c r="AQ11" s="153"/>
-      <c r="AR11" s="153"/>
-      <c r="AS11" s="153"/>
-      <c r="AT11" s="153"/>
-      <c r="AU11" s="153"/>
-      <c r="AV11" s="153"/>
-      <c r="AW11" s="153"/>
-      <c r="AX11" s="153"/>
-      <c r="AY11" s="153"/>
-      <c r="AZ11" s="154"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="103"/>
+      <c r="AI11" s="154"/>
+      <c r="AJ11" s="155"/>
+      <c r="AK11" s="155"/>
+      <c r="AL11" s="155"/>
+      <c r="AM11" s="155"/>
+      <c r="AN11" s="155"/>
+      <c r="AO11" s="155"/>
+      <c r="AP11" s="155"/>
+      <c r="AQ11" s="155"/>
+      <c r="AR11" s="155"/>
+      <c r="AS11" s="155"/>
+      <c r="AT11" s="155"/>
+      <c r="AU11" s="155"/>
+      <c r="AV11" s="155"/>
+      <c r="AW11" s="155"/>
+      <c r="AX11" s="155"/>
+      <c r="AY11" s="155"/>
+      <c r="AZ11" s="156"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="87"/>
-      <c r="AI12" s="152"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="153"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="153"/>
-      <c r="AQ12" s="153"/>
-      <c r="AR12" s="153"/>
-      <c r="AS12" s="153"/>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="153"/>
-      <c r="AZ12" s="154"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="103"/>
+      <c r="AI12" s="154"/>
+      <c r="AJ12" s="155"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="155"/>
+      <c r="AM12" s="155"/>
+      <c r="AN12" s="155"/>
+      <c r="AO12" s="155"/>
+      <c r="AP12" s="155"/>
+      <c r="AQ12" s="155"/>
+      <c r="AR12" s="155"/>
+      <c r="AS12" s="155"/>
+      <c r="AT12" s="155"/>
+      <c r="AU12" s="155"/>
+      <c r="AV12" s="155"/>
+      <c r="AW12" s="155"/>
+      <c r="AX12" s="155"/>
+      <c r="AY12" s="155"/>
+      <c r="AZ12" s="156"/>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="87"/>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="153"/>
-      <c r="AK13" s="153"/>
-      <c r="AL13" s="153"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="153"/>
-      <c r="AP13" s="153"/>
-      <c r="AQ13" s="153"/>
-      <c r="AR13" s="153"/>
-      <c r="AS13" s="153"/>
-      <c r="AT13" s="153"/>
-      <c r="AU13" s="153"/>
-      <c r="AV13" s="153"/>
-      <c r="AW13" s="153"/>
-      <c r="AX13" s="153"/>
-      <c r="AY13" s="153"/>
-      <c r="AZ13" s="154"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="103"/>
+      <c r="AI13" s="154"/>
+      <c r="AJ13" s="155"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="155"/>
+      <c r="AO13" s="155"/>
+      <c r="AP13" s="155"/>
+      <c r="AQ13" s="155"/>
+      <c r="AR13" s="155"/>
+      <c r="AS13" s="155"/>
+      <c r="AT13" s="155"/>
+      <c r="AU13" s="155"/>
+      <c r="AV13" s="155"/>
+      <c r="AW13" s="155"/>
+      <c r="AX13" s="155"/>
+      <c r="AY13" s="155"/>
+      <c r="AZ13" s="156"/>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="87"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="153"/>
-      <c r="AK14" s="153"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="153"/>
-      <c r="AQ14" s="153"/>
-      <c r="AR14" s="153"/>
-      <c r="AS14" s="153"/>
-      <c r="AT14" s="153"/>
-      <c r="AU14" s="153"/>
-      <c r="AV14" s="153"/>
-      <c r="AW14" s="153"/>
-      <c r="AX14" s="153"/>
-      <c r="AY14" s="153"/>
-      <c r="AZ14" s="154"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="103"/>
+      <c r="AI14" s="154"/>
+      <c r="AJ14" s="155"/>
+      <c r="AK14" s="155"/>
+      <c r="AL14" s="155"/>
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="155"/>
+      <c r="AO14" s="155"/>
+      <c r="AP14" s="155"/>
+      <c r="AQ14" s="155"/>
+      <c r="AR14" s="155"/>
+      <c r="AS14" s="155"/>
+      <c r="AT14" s="155"/>
+      <c r="AU14" s="155"/>
+      <c r="AV14" s="155"/>
+      <c r="AW14" s="155"/>
+      <c r="AX14" s="155"/>
+      <c r="AY14" s="155"/>
+      <c r="AZ14" s="156"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AI15" s="152"/>
-      <c r="AJ15" s="153"/>
-      <c r="AK15" s="153"/>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="153"/>
-      <c r="AS15" s="153"/>
-      <c r="AT15" s="153"/>
-      <c r="AU15" s="153"/>
-      <c r="AV15" s="153"/>
-      <c r="AW15" s="153"/>
-      <c r="AX15" s="153"/>
-      <c r="AY15" s="153"/>
-      <c r="AZ15" s="154"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="102"/>
+      <c r="AG15" s="103"/>
+      <c r="AI15" s="154"/>
+      <c r="AJ15" s="155"/>
+      <c r="AK15" s="155"/>
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="155"/>
+      <c r="AO15" s="155"/>
+      <c r="AP15" s="155"/>
+      <c r="AQ15" s="155"/>
+      <c r="AR15" s="155"/>
+      <c r="AS15" s="155"/>
+      <c r="AT15" s="155"/>
+      <c r="AU15" s="155"/>
+      <c r="AV15" s="155"/>
+      <c r="AW15" s="155"/>
+      <c r="AX15" s="155"/>
+      <c r="AY15" s="155"/>
+      <c r="AZ15" s="156"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="87"/>
-      <c r="AI16" s="152"/>
-      <c r="AJ16" s="153"/>
-      <c r="AK16" s="153"/>
-      <c r="AL16" s="153"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
-      <c r="AQ16" s="153"/>
-      <c r="AR16" s="153"/>
-      <c r="AS16" s="153"/>
-      <c r="AT16" s="153"/>
-      <c r="AU16" s="153"/>
-      <c r="AV16" s="153"/>
-      <c r="AW16" s="153"/>
-      <c r="AX16" s="153"/>
-      <c r="AY16" s="153"/>
-      <c r="AZ16" s="154"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="103"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="155"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="155"/>
+      <c r="AM16" s="155"/>
+      <c r="AN16" s="155"/>
+      <c r="AO16" s="155"/>
+      <c r="AP16" s="155"/>
+      <c r="AQ16" s="155"/>
+      <c r="AR16" s="155"/>
+      <c r="AS16" s="155"/>
+      <c r="AT16" s="155"/>
+      <c r="AU16" s="155"/>
+      <c r="AV16" s="155"/>
+      <c r="AW16" s="155"/>
+      <c r="AX16" s="155"/>
+      <c r="AY16" s="155"/>
+      <c r="AZ16" s="156"/>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="87"/>
-      <c r="AI17" s="152"/>
-      <c r="AJ17" s="153"/>
-      <c r="AK17" s="153"/>
-      <c r="AL17" s="153"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="153"/>
-      <c r="AQ17" s="153"/>
-      <c r="AR17" s="153"/>
-      <c r="AS17" s="153"/>
-      <c r="AT17" s="153"/>
-      <c r="AU17" s="153"/>
-      <c r="AV17" s="153"/>
-      <c r="AW17" s="153"/>
-      <c r="AX17" s="153"/>
-      <c r="AY17" s="153"/>
-      <c r="AZ17" s="154"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="103"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="155"/>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="155"/>
+      <c r="AM17" s="155"/>
+      <c r="AN17" s="155"/>
+      <c r="AO17" s="155"/>
+      <c r="AP17" s="155"/>
+      <c r="AQ17" s="155"/>
+      <c r="AR17" s="155"/>
+      <c r="AS17" s="155"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="155"/>
+      <c r="AV17" s="155"/>
+      <c r="AW17" s="155"/>
+      <c r="AX17" s="155"/>
+      <c r="AY17" s="155"/>
+      <c r="AZ17" s="156"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="87"/>
-      <c r="AI18" s="152"/>
-      <c r="AJ18" s="153"/>
-      <c r="AK18" s="153"/>
-      <c r="AL18" s="153"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="153"/>
-      <c r="AQ18" s="153"/>
-      <c r="AR18" s="153"/>
-      <c r="AS18" s="153"/>
-      <c r="AT18" s="153"/>
-      <c r="AU18" s="153"/>
-      <c r="AV18" s="153"/>
-      <c r="AW18" s="153"/>
-      <c r="AX18" s="153"/>
-      <c r="AY18" s="153"/>
-      <c r="AZ18" s="154"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="103"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="155"/>
+      <c r="AK18" s="155"/>
+      <c r="AL18" s="155"/>
+      <c r="AM18" s="155"/>
+      <c r="AN18" s="155"/>
+      <c r="AO18" s="155"/>
+      <c r="AP18" s="155"/>
+      <c r="AQ18" s="155"/>
+      <c r="AR18" s="155"/>
+      <c r="AS18" s="155"/>
+      <c r="AT18" s="155"/>
+      <c r="AU18" s="155"/>
+      <c r="AV18" s="155"/>
+      <c r="AW18" s="155"/>
+      <c r="AX18" s="155"/>
+      <c r="AY18" s="155"/>
+      <c r="AZ18" s="156"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="87"/>
-      <c r="AI19" s="152"/>
-      <c r="AJ19" s="153"/>
-      <c r="AK19" s="153"/>
-      <c r="AL19" s="153"/>
-      <c r="AM19" s="153"/>
-      <c r="AN19" s="153"/>
-      <c r="AO19" s="153"/>
-      <c r="AP19" s="153"/>
-      <c r="AQ19" s="153"/>
-      <c r="AR19" s="153"/>
-      <c r="AS19" s="153"/>
-      <c r="AT19" s="153"/>
-      <c r="AU19" s="153"/>
-      <c r="AV19" s="153"/>
-      <c r="AW19" s="153"/>
-      <c r="AX19" s="153"/>
-      <c r="AY19" s="153"/>
-      <c r="AZ19" s="154"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="103"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="155"/>
+      <c r="AL19" s="155"/>
+      <c r="AM19" s="155"/>
+      <c r="AN19" s="155"/>
+      <c r="AO19" s="155"/>
+      <c r="AP19" s="155"/>
+      <c r="AQ19" s="155"/>
+      <c r="AR19" s="155"/>
+      <c r="AS19" s="155"/>
+      <c r="AT19" s="155"/>
+      <c r="AU19" s="155"/>
+      <c r="AV19" s="155"/>
+      <c r="AW19" s="155"/>
+      <c r="AX19" s="155"/>
+      <c r="AY19" s="155"/>
+      <c r="AZ19" s="156"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="87"/>
-      <c r="AI20" s="152"/>
-      <c r="AJ20" s="153"/>
-      <c r="AK20" s="153"/>
-      <c r="AL20" s="153"/>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="153"/>
-      <c r="AQ20" s="153"/>
-      <c r="AR20" s="153"/>
-      <c r="AS20" s="153"/>
-      <c r="AT20" s="153"/>
-      <c r="AU20" s="153"/>
-      <c r="AV20" s="153"/>
-      <c r="AW20" s="153"/>
-      <c r="AX20" s="153"/>
-      <c r="AY20" s="153"/>
-      <c r="AZ20" s="154"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="103"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="155"/>
+      <c r="AL20" s="155"/>
+      <c r="AM20" s="155"/>
+      <c r="AN20" s="155"/>
+      <c r="AO20" s="155"/>
+      <c r="AP20" s="155"/>
+      <c r="AQ20" s="155"/>
+      <c r="AR20" s="155"/>
+      <c r="AS20" s="155"/>
+      <c r="AT20" s="155"/>
+      <c r="AU20" s="155"/>
+      <c r="AV20" s="155"/>
+      <c r="AW20" s="155"/>
+      <c r="AX20" s="155"/>
+      <c r="AY20" s="155"/>
+      <c r="AZ20" s="156"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="87"/>
-      <c r="AI21" s="152"/>
-      <c r="AJ21" s="153"/>
-      <c r="AK21" s="153"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="153"/>
-      <c r="AO21" s="153"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
-      <c r="AU21" s="153"/>
-      <c r="AV21" s="153"/>
-      <c r="AW21" s="153"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="154"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="103"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="155"/>
+      <c r="AK21" s="155"/>
+      <c r="AL21" s="155"/>
+      <c r="AM21" s="155"/>
+      <c r="AN21" s="155"/>
+      <c r="AO21" s="155"/>
+      <c r="AP21" s="155"/>
+      <c r="AQ21" s="155"/>
+      <c r="AR21" s="155"/>
+      <c r="AS21" s="155"/>
+      <c r="AT21" s="155"/>
+      <c r="AU21" s="155"/>
+      <c r="AV21" s="155"/>
+      <c r="AW21" s="155"/>
+      <c r="AX21" s="155"/>
+      <c r="AY21" s="155"/>
+      <c r="AZ21" s="156"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="87"/>
-      <c r="AI22" s="152"/>
-      <c r="AJ22" s="153"/>
-      <c r="AK22" s="153"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="153"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
-      <c r="AU22" s="153"/>
-      <c r="AV22" s="153"/>
-      <c r="AW22" s="153"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="154"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="103"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="155"/>
+      <c r="AO22" s="155"/>
+      <c r="AP22" s="155"/>
+      <c r="AQ22" s="155"/>
+      <c r="AR22" s="155"/>
+      <c r="AS22" s="155"/>
+      <c r="AT22" s="155"/>
+      <c r="AU22" s="155"/>
+      <c r="AV22" s="155"/>
+      <c r="AW22" s="155"/>
+      <c r="AX22" s="155"/>
+      <c r="AY22" s="155"/>
+      <c r="AZ22" s="156"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="87"/>
-      <c r="AI23" s="152"/>
-      <c r="AJ23" s="153"/>
-      <c r="AK23" s="153"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="153"/>
-      <c r="AO23" s="153"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
-      <c r="AU23" s="153"/>
-      <c r="AV23" s="153"/>
-      <c r="AW23" s="153"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="154"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="103"/>
+      <c r="AI23" s="154"/>
+      <c r="AJ23" s="155"/>
+      <c r="AK23" s="155"/>
+      <c r="AL23" s="155"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="155"/>
+      <c r="AO23" s="155"/>
+      <c r="AP23" s="155"/>
+      <c r="AQ23" s="155"/>
+      <c r="AR23" s="155"/>
+      <c r="AS23" s="155"/>
+      <c r="AT23" s="155"/>
+      <c r="AU23" s="155"/>
+      <c r="AV23" s="155"/>
+      <c r="AW23" s="155"/>
+      <c r="AX23" s="155"/>
+      <c r="AY23" s="155"/>
+      <c r="AZ23" s="156"/>
     </row>
     <row r="24" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AI24" s="155"/>
-      <c r="AJ24" s="156"/>
-      <c r="AK24" s="156"/>
-      <c r="AL24" s="156"/>
-      <c r="AM24" s="156"/>
-      <c r="AN24" s="156"/>
-      <c r="AO24" s="156"/>
-      <c r="AP24" s="156"/>
-      <c r="AQ24" s="156"/>
-      <c r="AR24" s="156"/>
-      <c r="AS24" s="156"/>
-      <c r="AT24" s="156"/>
-      <c r="AU24" s="156"/>
-      <c r="AV24" s="156"/>
-      <c r="AW24" s="156"/>
-      <c r="AX24" s="156"/>
-      <c r="AY24" s="156"/>
-      <c r="AZ24" s="157"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="106"/>
+      <c r="AI24" s="157"/>
+      <c r="AJ24" s="158"/>
+      <c r="AK24" s="158"/>
+      <c r="AL24" s="158"/>
+      <c r="AM24" s="158"/>
+      <c r="AN24" s="158"/>
+      <c r="AO24" s="158"/>
+      <c r="AP24" s="158"/>
+      <c r="AQ24" s="158"/>
+      <c r="AR24" s="158"/>
+      <c r="AS24" s="158"/>
+      <c r="AT24" s="158"/>
+      <c r="AU24" s="158"/>
+      <c r="AV24" s="158"/>
+      <c r="AW24" s="158"/>
+      <c r="AX24" s="158"/>
+      <c r="AY24" s="158"/>
+      <c r="AZ24" s="159"/>
     </row>
     <row r="25" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138" t="s">
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="139"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="144"/>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="142"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="146"/>
+      <c r="U27" s="146"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="146"/>
+      <c r="X27" s="146"/>
+      <c r="Y27" s="146"/>
+      <c r="Z27" s="146"/>
+      <c r="AA27" s="146"/>
+      <c r="AB27" s="146"/>
+      <c r="AC27" s="146"/>
+      <c r="AD27" s="146"/>
+      <c r="AE27" s="146"/>
+      <c r="AF27" s="146"/>
+      <c r="AG27" s="147"/>
     </row>
     <row r="28" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="135"/>
-      <c r="AF28" s="135"/>
-      <c r="AG28" s="136"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="140"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="141"/>
     </row>
     <row r="29" spans="2:52" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="43"/>
@@ -11530,40 +11568,40 @@
       <c r="X29" s="43"/>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B30" s="143" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="145"/>
+      <c r="B30" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="137"/>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.4">
       <c r="B31" s="52"/>
@@ -11601,13 +11639,13 @@
     </row>
     <row r="32" spans="2:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B32" s="52"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
       <c r="J32" s="56"/>
       <c r="K32" s="56"/>
       <c r="L32" s="56"/>
@@ -11635,13 +11673,13 @@
     </row>
     <row r="33" spans="2:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B33" s="52"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
       <c r="J33" s="56"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
@@ -12233,59 +12271,59 @@
     </row>
     <row r="51" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="52" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B52" s="143" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="144"/>
-      <c r="Q52" s="144"/>
-      <c r="R52" s="144"/>
-      <c r="S52" s="144"/>
-      <c r="T52" s="144"/>
-      <c r="U52" s="144"/>
-      <c r="V52" s="144"/>
-      <c r="W52" s="144"/>
-      <c r="X52" s="144"/>
-      <c r="Y52" s="144"/>
-      <c r="Z52" s="144"/>
-      <c r="AA52" s="144"/>
-      <c r="AB52" s="144"/>
-      <c r="AC52" s="144"/>
-      <c r="AD52" s="144"/>
-      <c r="AE52" s="144"/>
-      <c r="AF52" s="144"/>
-      <c r="AG52" s="144"/>
-      <c r="AH52" s="144"/>
-      <c r="AI52" s="144"/>
-      <c r="AJ52" s="144"/>
-      <c r="AK52" s="144"/>
-      <c r="AL52" s="144"/>
-      <c r="AM52" s="144"/>
-      <c r="AN52" s="144"/>
-      <c r="AO52" s="144"/>
-      <c r="AP52" s="144"/>
-      <c r="AQ52" s="144"/>
-      <c r="AR52" s="144"/>
-      <c r="AS52" s="144"/>
-      <c r="AT52" s="144"/>
-      <c r="AU52" s="144"/>
-      <c r="AV52" s="144"/>
-      <c r="AW52" s="144"/>
-      <c r="AX52" s="144"/>
-      <c r="AY52" s="144"/>
-      <c r="AZ52" s="145"/>
+      <c r="B52" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="136"/>
+      <c r="P52" s="136"/>
+      <c r="Q52" s="136"/>
+      <c r="R52" s="136"/>
+      <c r="S52" s="136"/>
+      <c r="T52" s="136"/>
+      <c r="U52" s="136"/>
+      <c r="V52" s="136"/>
+      <c r="W52" s="136"/>
+      <c r="X52" s="136"/>
+      <c r="Y52" s="136"/>
+      <c r="Z52" s="136"/>
+      <c r="AA52" s="136"/>
+      <c r="AB52" s="136"/>
+      <c r="AC52" s="136"/>
+      <c r="AD52" s="136"/>
+      <c r="AE52" s="136"/>
+      <c r="AF52" s="136"/>
+      <c r="AG52" s="136"/>
+      <c r="AH52" s="136"/>
+      <c r="AI52" s="136"/>
+      <c r="AJ52" s="136"/>
+      <c r="AK52" s="136"/>
+      <c r="AL52" s="136"/>
+      <c r="AM52" s="136"/>
+      <c r="AN52" s="136"/>
+      <c r="AO52" s="136"/>
+      <c r="AP52" s="136"/>
+      <c r="AQ52" s="136"/>
+      <c r="AR52" s="136"/>
+      <c r="AS52" s="136"/>
+      <c r="AT52" s="136"/>
+      <c r="AU52" s="136"/>
+      <c r="AV52" s="136"/>
+      <c r="AW52" s="136"/>
+      <c r="AX52" s="136"/>
+      <c r="AY52" s="136"/>
+      <c r="AZ52" s="137"/>
     </row>
     <row r="53" spans="2:52" x14ac:dyDescent="0.4">
       <c r="B53" s="46"/>
@@ -12766,40 +12804,33 @@
     </row>
     <row r="62" spans="2:52" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="63" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B63" s="69" t="s">
+      <c r="B63" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="91"/>
     </row>
     <row r="64" spans="2:52" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="104"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="75"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="104"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="75"/>
     </row>
     <row r="66" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="74"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B52:AZ52"/>
-    <mergeCell ref="B30:AG30"/>
-    <mergeCell ref="C32:I33"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B64:E64"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="L28:AG28"/>
     <mergeCell ref="AT2:AZ3"/>
@@ -12813,6 +12844,13 @@
     <mergeCell ref="AI6:AZ6"/>
     <mergeCell ref="AI8:AZ8"/>
     <mergeCell ref="AI9:AZ24"/>
+    <mergeCell ref="B52:AZ52"/>
+    <mergeCell ref="B30:AG30"/>
+    <mergeCell ref="C32:I33"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B64:E64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
